--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2287.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2287.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.131248062274038</v>
+        <v>1.182277083396912</v>
       </c>
       <c r="B1">
-        <v>3.420299789400504</v>
+        <v>2.404687643051147</v>
       </c>
       <c r="C1">
-        <v>3.782734401689188</v>
+        <v>3.772290468215942</v>
       </c>
       <c r="D1">
-        <v>3.555463106590183</v>
+        <v>2.091436624526978</v>
       </c>
       <c r="E1">
-        <v>1.212133920362665</v>
+        <v>1.201637148857117</v>
       </c>
     </row>
   </sheetData>
